--- a/Documentação/backlog.xlsx
+++ b/Documentação/backlog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bandtec\Pesq. &amp; Inov\Segunda tentativa\Projeto de PI\DevBand\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\proj.DevBand\DevBand\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EC08DF-2C0F-4B6D-A0D6-B189AA71DED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -87,12 +88,21 @@
   </si>
   <si>
     <t>Segurança do site - Site</t>
+  </si>
+  <si>
+    <t>Pontos</t>
+  </si>
+  <si>
+    <t>Pagina- cadastros</t>
+  </si>
+  <si>
+    <t>pagina-contato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +172,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,21 +252,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,37 +309,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -566,11 +594,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:N19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D5:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,311 +606,401 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="9">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="9">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="10" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="9">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="9">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="9">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="10" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="9">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="10" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="9">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
         <v>7</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="9">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="21">
         <v>8</v>
       </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="5" t="s">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="9">
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="10" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="9">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
         <v>10</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="9">
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
         <v>11</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="11" t="s">
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="9">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
         <v>12</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="14" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="9">
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="21">
         <v>13</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="9">
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
         <v>14</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="E19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="21">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="E16:G16"/>
@@ -895,39 +1013,6 @@
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="K18:N18"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
